--- a/pcxzf/pcxzf/jiancefawenjian/网站监测反馈v3.0.xlsx
+++ b/pcxzf/pcxzf/jiancefawenjian/网站监测反馈v3.0.xlsx
@@ -17,13 +17,21 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="20"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="13"/>
     </font>
   </fonts>
   <fills count="2">
@@ -46,8 +54,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,14 +423,87 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>四、政府信息政策栏超期情况</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>单位名称</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>更新标题</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>最后更新时间</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>超期天数</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>平昌县经济和信息化局</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">平昌县预制菜产业招商工作方案                                            </t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2023-07-05</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>平昌县兰草镇人民政府</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">兰草镇安全生产大提升专项行动工作方案                                            </t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2023-06-29</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>375</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/pcxzf/pcxzf/jiancefawenjian/网站监测反馈v3.0.xlsx
+++ b/pcxzf/pcxzf/jiancefawenjian/网站监测反馈v3.0.xlsx
@@ -423,7 +423,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K53"/>
+  <dimension ref="A1:K57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1369,12 +1369,69 @@
         </is>
       </c>
     </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>四、政府信息政策栏超期情况</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="inlineStr">
+        <is>
+          <t>单位名称</t>
+        </is>
+      </c>
+      <c r="B56" s="2" t="inlineStr">
+        <is>
+          <t>更新标题</t>
+        </is>
+      </c>
+      <c r="C56" s="2" t="inlineStr">
+        <is>
+          <t>最后更新时间</t>
+        </is>
+      </c>
+      <c r="D56" s="2" t="inlineStr">
+        <is>
+          <t>超期天数</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="n"/>
+      <c r="F56" s="2" t="n"/>
+      <c r="G56" s="2" t="n"/>
+      <c r="H56" s="2" t="n"/>
+      <c r="I56" s="2" t="n"/>
+      <c r="J56" s="2" t="n"/>
+      <c r="K56" s="2" t="n"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>平昌县医疗保障局</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">平昌县2024年度城乡居民基本医疗保险政策                                            </t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>2023-09-11</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>369</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A34:E34"/>
     <mergeCell ref="A31:D31"/>
     <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A55:D55"/>
     <mergeCell ref="A19:D19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/pcxzf/pcxzf/jiancefawenjian/网站监测反馈v3.0.xlsx
+++ b/pcxzf/pcxzf/jiancefawenjian/网站监测反馈v3.0.xlsx
@@ -423,7 +423,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K57"/>
+  <dimension ref="A1:K61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,7 +447,7 @@
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>检测时间：2024-09-02 10:38:04</t>
+          <t>检测时间：2024-10-21 10:30:39</t>
         </is>
       </c>
     </row>
@@ -497,26 +497,26 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>平昌县农业农村局</t>
+          <t>平昌县经济和信息化局</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>涉农补贴</t>
+          <t>统计信息</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024年度平昌县享受农机购置与应用补贴第四批购机者信息表                                            </t>
+          <t xml:space="preserve">1-5月平昌县规上工业企业实现总产值                                            </t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2024-07-04</t>
+          <t>2024-06-20</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>60</v>
+        <v>123</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -532,7 +532,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>平昌县应急管理局</t>
+          <t>平昌县财政局</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -542,12 +542,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t xml:space="preserve">平昌县应急管理局行政执法人员名录库（2024年度）                                            </t>
+          <t xml:space="preserve">平昌县惠民惠农财政补贴资金“一卡通”政策汇编                                            </t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2024-06-03</t>
+          <t>2024-07-22</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -559,32 +559,32 @@
         </is>
       </c>
       <c r="K5" t="n">
-        <v>365</v>
+        <v>355</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>平昌县市场监督管理局</t>
+          <t>平昌县交通运输局</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>市场监管</t>
+          <t>行政权力</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve">平昌县市场监督管理局：关于150批次食品安全监督抽检情况的通告                                            </t>
+          <t xml:space="preserve">平昌县交通运输局行政许可事项受理公示                                            </t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2024-05-30</t>
+          <t>2024-07-29</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -592,13 +592,13 @@
         </is>
       </c>
       <c r="K6" t="n">
-        <v>365</v>
+        <v>355</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>平昌县信访局</t>
+          <t>平昌县文化广播电视体育和旅游局</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -608,16 +608,16 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t xml:space="preserve">国家信访局初次信访事项办理办法                                            </t>
+          <t xml:space="preserve">平昌县文化广播电视体育和旅游局关于2023年度广播电视户户通运行维护资金绩效评价报告                                            </t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2024-05-29</t>
+          <t>2024-08-01</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -625,32 +625,32 @@
         </is>
       </c>
       <c r="K7" t="n">
-        <v>365</v>
+        <v>355</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>平昌县医疗保障局</t>
+          <t>平昌县卫生健康局</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>行政许可/处罚</t>
+          <t>其他法定信息</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve">平昌县医疗保障局关于将387家村（社区）卫生室纳入医保定点协议管理的公示                                            </t>
+          <t xml:space="preserve">平昌县卫生健康局关于2023年部门整体支出绩效评价的报告                                            </t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2024-05-24</t>
+          <t>2024-07-29</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -658,32 +658,32 @@
         </is>
       </c>
       <c r="K8" t="n">
-        <v>365</v>
+        <v>355</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>平昌县行政审批和数据局</t>
+          <t>平昌县审计局</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>放管服改革</t>
+          <t>其他法定信息</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t xml:space="preserve">平昌县2024年推进跨部门综合监管重点任务分工清单                                            </t>
+          <t xml:space="preserve">关于调整县委审计委员会组成人员的通知                                            </t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2024-07-04</t>
+          <t>2024-07-17</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -691,32 +691,32 @@
         </is>
       </c>
       <c r="K9" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>平昌县土兴镇人民政府</t>
+          <t>巴中市平昌生态环境局</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>民生保障</t>
+          <t>预算/决算</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t xml:space="preserve">土兴镇2024年第一季度公益性岗位安置人员补贴资金兑现情况                                            </t>
+          <t xml:space="preserve">巴中市平昌生态环境局2022年度单位决算                                            </t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2024-06-04</t>
+          <t>2023-10-13</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>90</v>
+        <v>374</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -724,13 +724,13 @@
         </is>
       </c>
       <c r="K10" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>平昌县泥龙镇人民政府</t>
+          <t>平昌县医疗保障局</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -740,16 +740,16 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t xml:space="preserve">泥龙镇2024年第二季度动物防疫工作情况统计                                            </t>
+          <t xml:space="preserve">2023年度平昌县医疗费用报费情况                                            </t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2024-05-28</t>
+          <t>2024-06-07</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -757,29 +757,66 @@
         </is>
       </c>
       <c r="K11" t="n">
-        <v>365</v>
+        <v>355</v>
       </c>
     </row>
     <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>平昌县行政审批和数据局</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>放管服改革</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">【优化营商环境】白衣镇抓好并联审批落地提升政务服务水平                                            </t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2022-09-05</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>777</v>
+      </c>
       <c r="J12" t="inlineStr">
         <is>
           <t>收费项目</t>
         </is>
       </c>
       <c r="K12" t="n">
-        <v>365</v>
+        <v>355</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="inlineStr">
-        <is>
-          <t>2.死链监测：以下单位对应栏目无内容，请上传内容或审核发布</t>
-        </is>
-      </c>
-      <c r="B13" s="2" t="n"/>
-      <c r="C13" s="2" t="n"/>
-      <c r="D13" s="2" t="n"/>
-      <c r="E13" s="2" t="n"/>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>平昌县金宝新区管理委员会</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>统计信息</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">金宝新区环境综合治理情况统计                                            </t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>88</v>
+      </c>
       <c r="J13" t="inlineStr">
         <is>
           <t>政府采购</t>
@@ -790,71 +827,128 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="inlineStr">
-        <is>
-          <t>单位名称</t>
-        </is>
-      </c>
-      <c r="B14" s="2" t="inlineStr">
-        <is>
-          <t>栏目名称</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="n"/>
-      <c r="D14" s="2" t="n"/>
-      <c r="E14" s="2" t="n"/>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>平昌县金宝新区管理委员会</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>民生保障</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">金宝新区民政资金对象专项检查工作开展情况报告                                            </t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>88</v>
+      </c>
       <c r="J14" t="inlineStr">
         <is>
           <t>重大项目</t>
         </is>
       </c>
       <c r="K14" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>平昌县金宝新区管理委员会</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>其他法定信息</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">金宝新区2024年扫黑除恶工作情况                                            </t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>88</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>重大民生信息</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>平昌县白衣镇人民政府</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>统计信息</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">平昌县白衣镇村居委会完整名称核实表                                            </t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2024-07-17</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>96</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>其他法定信息</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>平昌县白衣镇人民政府</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>民生保障</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2024年新增高龄人口                                            </t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2024-07-23</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
         <v>90</v>
       </c>
-    </row>
-    <row r="15">
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>重大民生信息</t>
-        </is>
-      </c>
-      <c r="K15" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="inlineStr">
-        <is>
-          <t>3.统计信息缺失年份：以下单位缺失对应年份统计信息，请补充</t>
-        </is>
-      </c>
-      <c r="B16" s="2" t="n"/>
-      <c r="C16" s="2" t="n"/>
-      <c r="D16" s="2" t="n"/>
-      <c r="E16" s="2" t="n"/>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>其他法定信息</t>
-        </is>
-      </c>
-      <c r="K16" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="inlineStr">
-        <is>
-          <t>单位名称</t>
-        </is>
-      </c>
-      <c r="B17" s="2" t="inlineStr">
-        <is>
-          <t>缺失年份</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="n"/>
-      <c r="D17" s="2" t="n"/>
-      <c r="E17" s="2" t="n"/>
       <c r="J17" t="inlineStr">
         <is>
           <t>教育科技</t>
@@ -865,6 +959,29 @@
       </c>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>平昌县白衣镇人民政府</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>其他法定信息</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">白衣镇2024年艾滋病防治工作实施方案                                            </t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2024-07-22</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>91</v>
+      </c>
       <c r="J18" t="inlineStr">
         <is>
           <t>养老服务</t>
@@ -875,10 +992,28 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>二、政府信息公开年报栏目缺失情况监测</t>
-        </is>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>平昌县西兴镇人民政府</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>民生保障</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">西兴镇2024年食品药品安全工作实施方案                                            </t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2024-07-26</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>87</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -886,23 +1021,33 @@
         </is>
       </c>
       <c r="K19" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="inlineStr">
-        <is>
-          <t>单位名称</t>
-        </is>
-      </c>
-      <c r="B20" s="2" t="inlineStr">
-        <is>
-          <t>缺失年份</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="n"/>
-      <c r="D20" s="2" t="n"/>
-      <c r="E20" s="2" t="n"/>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>平昌县西兴镇人民政府</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>其他法定信息</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">西兴镇道路管护制度                                            </t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2024-07-22</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>91</v>
+      </c>
       <c r="J20" t="inlineStr">
         <is>
           <t>就业创业</t>
@@ -913,6 +1058,29 @@
       </c>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>平昌县龙岗镇人民政府</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>民生保障</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">龙岗镇人关于开展高龄津贴发放对象年审工作的通知                                            </t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2024-07-19</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>94</v>
+      </c>
       <c r="J21" t="inlineStr">
         <is>
           <t>社会保障</t>
@@ -923,10 +1091,28 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>三、机构职能页监测</t>
-        </is>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>平昌县龙岗镇人民政府</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>其他法定信息</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">龙岗镇关于艾滋病重点领域综合防治工作实施方案                                            </t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2024-07-18</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>95</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -940,8 +1126,26 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>1.以下位置未发布，请管理员处理</t>
-        </is>
+          <t>平昌县土垭镇人民政府</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>民生保障</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">开展特殊困难老年人探访关爱服务实施方案的通知                                            </t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2024-07-23</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>90</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -949,24 +1153,65 @@
         </is>
       </c>
       <c r="K23" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>平昌县佛楼镇人民政府</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>其他法定信息</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">佛楼镇集中开展“四防”安全宣传教育活动工作方案                                            </t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2024-08-01</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>81</v>
+      </c>
       <c r="J24" t="inlineStr">
         <is>
           <t>价格信息</t>
         </is>
       </c>
       <c r="K24" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2.以下位置链接状态错误，请管理员检查</t>
-        </is>
+          <t>平昌县响滩镇人民政府</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>统计信息</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">响滩镇2024年二季度蔬菜、瓜果生产情况统计表                                            </t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2024-07-30</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>83</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -978,6 +1223,29 @@
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>平昌县驷马镇人民政府</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>统计信息</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">驷马镇2024年二季度蔬菜、瓜果生产情况统计                                            </t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2024-07-12</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>101</v>
+      </c>
       <c r="J26" t="inlineStr">
         <is>
           <t>涉农补贴</t>
@@ -990,8 +1258,26 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>3.以下单位机关简介中无领导分管政务公开，请对应部门修改</t>
-        </is>
+          <t>平昌县驷马镇人民政府</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>民生保障</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">驷马镇安全生产治本攻坚三年行动实施方案(2024-2026年)                                            </t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2024-07-05</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>108</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -1003,6 +1289,29 @@
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>平昌县驷马镇人民政府</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>其他法定信息</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">驷马镇关于切实做好夏季防溺水工作的通知                                            </t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2024-07-05</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>108</v>
+      </c>
       <c r="J28" t="inlineStr">
         <is>
           <t>应急管理</t>
@@ -1015,8 +1324,26 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>4.以下单位机关简介中时间表述错误，请对应部门修改</t>
-        </is>
+          <t>平昌县青云镇人民政府</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>民生保障</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">青云镇关于开展“红色代办队”帮代办服务的实施方案                                            </t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>88</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -1024,28 +1351,69 @@
         </is>
       </c>
       <c r="K29" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>平昌县青云镇人民政府</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>其他法定信息</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">青云镇大气污染防治工作方法                                            </t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>88</v>
+      </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>审计监督</t>
+          <t>市场监管</t>
         </is>
       </c>
       <c r="K30" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="inlineStr">
-        <is>
-          <t>四、政府信息政策栏超期情况</t>
-        </is>
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>平昌县澌岸镇人民政府</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>民生保障</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">澌岸镇2024年7月困难救助公示表                                            </t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2024-07-26</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>87</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>市场监管</t>
+          <t>环评公示</t>
         </is>
       </c>
       <c r="K31" t="n">
@@ -1053,30 +1421,32 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="2" t="inlineStr">
-        <is>
-          <t>单位名称</t>
-        </is>
-      </c>
-      <c r="B32" s="2" t="inlineStr">
-        <is>
-          <t>更新标题</t>
-        </is>
-      </c>
-      <c r="C32" s="2" t="inlineStr">
-        <is>
-          <t>最后更新时间</t>
-        </is>
-      </c>
-      <c r="D32" s="2" t="inlineStr">
-        <is>
-          <t>超期天数</t>
-        </is>
-      </c>
-      <c r="E32" s="2" t="n"/>
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>平昌县澌岸镇人民政府</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>其他法定信息</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">平昌县澌岸镇人民政府2023年部门整体支出绩效评价报告                                            </t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2024-07-26</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>87</v>
+      </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>环评公示</t>
+          <t>环保督察</t>
         </is>
       </c>
       <c r="K32" t="n">
@@ -1084,9 +1454,32 @@
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>平昌县元山镇人民政府</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>统计信息</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">元山镇2024年二季度中药材数据台账                                            </t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2024-07-29</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>84</v>
+      </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>环保督察</t>
+          <t>环境质量公报</t>
         </is>
       </c>
       <c r="K33" t="n">
@@ -1094,14 +1487,32 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="inlineStr">
-        <is>
-          <t>五、基层政务公开专栏监测</t>
-        </is>
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>平昌县灵山镇人民政府</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>民生保障</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">灵山镇2024年安全宣传“五进”工作实施方案                                            </t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2024-07-29</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>84</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>环境质量公报</t>
+          <t>执法检查</t>
         </is>
       </c>
       <c r="K34" t="n">
@@ -1109,137 +1520,174 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="2" t="inlineStr">
-        <is>
-          <t>1.以下位置内容条数少于4条</t>
-        </is>
-      </c>
-      <c r="B35" s="2" t="n"/>
-      <c r="C35" s="2" t="n"/>
-      <c r="D35" s="2" t="n"/>
-      <c r="E35" s="2" t="n"/>
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>平昌县灵山镇人民政府</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>其他法定信息</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">平昌县灵山镇便民服务中心管理制度                                            </t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2024-07-26</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>87</v>
+      </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>执法检查</t>
+          <t>乡村振兴</t>
         </is>
       </c>
       <c r="K35" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>单位名称</t>
+          <t>平昌县土兴镇人民政府</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>领域</t>
+          <t>规划计划</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>一级事项</t>
+          <t xml:space="preserve">土兴镇2023年安全生产应急管理工作计划                                            </t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>二级事项</t>
-        </is>
+          <t>2023-10-19</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>368</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>乡村振兴</t>
+          <t>行政许可/处罚</t>
         </is>
       </c>
       <c r="K36" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>平昌县三十二梁镇人民政府</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>其他法定信息</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">三十二梁旅游景区研学基地拓片区域全面竣工                                            </t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2024-07-22</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>91</v>
+      </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>行政许可/处罚</t>
+          <t>医疗保障</t>
         </is>
       </c>
       <c r="K37" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="2" t="inlineStr">
-        <is>
-          <t>2.以下位置最近更新时间大于330天</t>
-        </is>
-      </c>
-      <c r="B38" s="2" t="n"/>
-      <c r="C38" s="2" t="n"/>
-      <c r="D38" s="2" t="n"/>
-      <c r="E38" s="2" t="n"/>
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>平昌县邱家镇人民政府</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>统计信息</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">邱家镇2024年二季度经济作物指导性任务表                                            </t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2024-07-17</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>96</v>
+      </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>医疗保障</t>
+          <t>公共文化服务</t>
         </is>
       </c>
       <c r="K38" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>单位名称</t>
+          <t>平昌县邱家镇人民政府</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>领域</t>
+          <t>其他法定信息</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>一级事项</t>
+          <t xml:space="preserve">关于对2024年汛期乡村公路水毁安全隐患进行整治的通知                                            </t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>二级事项</t>
-        </is>
+          <t>2024-07-30</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>83</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>公共文化服务</t>
+          <t>放管服改革</t>
         </is>
       </c>
       <c r="K39" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>平昌县市场监督管理局</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>食品药品</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>公共服务</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>食品药品安全应急处置和投诉举报</t>
-        </is>
-      </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>放管服改革</t>
+          <t>卫生健康</t>
         </is>
       </c>
       <c r="K40" t="n">
@@ -1247,24 +1695,18 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>平昌县财政局</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>财政预决算</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>财政决算</t>
-        </is>
-      </c>
+      <c r="A41" s="2" t="inlineStr">
+        <is>
+          <t>2.死链监测：以下单位对应栏目无内容，请上传内容或审核发布</t>
+        </is>
+      </c>
+      <c r="B41" s="2" t="n"/>
+      <c r="C41" s="2" t="n"/>
+      <c r="D41" s="2" t="n"/>
+      <c r="E41" s="2" t="n"/>
       <c r="J41" t="inlineStr">
         <is>
-          <t>卫生健康</t>
+          <t>价格监测</t>
         </is>
       </c>
       <c r="K41" t="n">
@@ -1272,44 +1714,32 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>巴中市平昌生态环境局</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>生态环境</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>行政处罚</t>
-        </is>
-      </c>
+      <c r="A42" s="2" t="inlineStr">
+        <is>
+          <t>单位名称</t>
+        </is>
+      </c>
+      <c r="B42" s="2" t="inlineStr">
+        <is>
+          <t>栏目名称</t>
+        </is>
+      </c>
+      <c r="C42" s="2" t="n"/>
+      <c r="D42" s="2" t="n"/>
+      <c r="E42" s="2" t="n"/>
       <c r="J42" t="inlineStr">
         <is>
-          <t>价格监测</t>
+          <t>民生保障</t>
         </is>
       </c>
       <c r="K42" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>民生保障</t>
-        </is>
-      </c>
-      <c r="K43" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>3.以下位置相邻文章发布时间间隔大于90天</t>
+          <t>3.统计信息缺失年份：以下单位缺失对应年份统计信息，请补充</t>
         </is>
       </c>
       <c r="B44" s="2" t="n"/>
@@ -1318,21 +1748,41 @@
       <c r="E44" s="2" t="n"/>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
+      <c r="A45" s="2" t="inlineStr">
         <is>
           <t>单位名称</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>领域</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>一级事项</t>
-        </is>
-      </c>
+      <c r="B45" s="2" t="inlineStr">
+        <is>
+          <t>缺失年份</t>
+        </is>
+      </c>
+      <c r="C45" s="2" t="n"/>
+      <c r="D45" s="2" t="n"/>
+      <c r="E45" s="2" t="n"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>二、政府信息公开年报栏目缺失情况监测</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="inlineStr">
+        <is>
+          <t>单位名称</t>
+        </is>
+      </c>
+      <c r="B48" s="2" t="inlineStr">
+        <is>
+          <t>缺失年份</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="n"/>
+      <c r="D48" s="2" t="n"/>
+      <c r="E48" s="2" t="n"/>
     </row>
     <row r="49">
       <c r="J49" s="2" t="inlineStr">
@@ -1342,6 +1792,11 @@
       </c>
     </row>
     <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>三、机构职能页监测</t>
+        </is>
+      </c>
       <c r="J50" t="inlineStr">
         <is>
           <t>1.每个事项的总内容不少于4条</t>
@@ -1349,6 +1804,11 @@
       </c>
     </row>
     <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>1.以下位置未发布，请管理员处理</t>
+        </is>
+      </c>
       <c r="J51" t="inlineStr">
         <is>
           <t>2.最新更新时间不大于90天</t>
@@ -1363,6 +1823,11 @@
       </c>
     </row>
     <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2.以下位置链接状态错误，请管理员检查</t>
+        </is>
+      </c>
       <c r="J53" t="inlineStr">
         <is>
           <t>注意：除办事服务等不易发布的内容外，其余链接形式的内容应尽量粘贴复制而不是直接跳转，否则机器人无法监测</t>
@@ -1370,69 +1835,82 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="1" t="inlineStr">
-        <is>
-          <t>四、政府信息政策栏超期情况</t>
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>3.以下单位机关简介中无领导分管政务公开，请对应部门修改</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="2" t="inlineStr">
-        <is>
-          <t>单位名称</t>
-        </is>
-      </c>
-      <c r="B56" s="2" t="inlineStr">
-        <is>
-          <t>更新标题</t>
-        </is>
-      </c>
-      <c r="C56" s="2" t="inlineStr">
-        <is>
-          <t>最后更新时间</t>
-        </is>
-      </c>
-      <c r="D56" s="2" t="inlineStr">
-        <is>
-          <t>超期天数</t>
-        </is>
-      </c>
-      <c r="E56" s="2" t="n"/>
-      <c r="F56" s="2" t="n"/>
-      <c r="G56" s="2" t="n"/>
-      <c r="H56" s="2" t="n"/>
-      <c r="I56" s="2" t="n"/>
-      <c r="J56" s="2" t="n"/>
-      <c r="K56" s="2" t="n"/>
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>县经济和信息化局</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
+          <t>4.以下单位机关简介中时间表述错误，请对应部门修改</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="inlineStr">
+        <is>
+          <t>四、政府信息政策栏超期情况</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="inlineStr">
+        <is>
+          <t>单位名称</t>
+        </is>
+      </c>
+      <c r="B60" s="2" t="inlineStr">
+        <is>
+          <t>更新标题</t>
+        </is>
+      </c>
+      <c r="C60" s="2" t="inlineStr">
+        <is>
+          <t>最后更新时间</t>
+        </is>
+      </c>
+      <c r="D60" s="2" t="inlineStr">
+        <is>
+          <t>超期天数</t>
+        </is>
+      </c>
+      <c r="E60" s="2" t="n"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
           <t>平昌县医疗保障局</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B61" t="inlineStr">
         <is>
           <t xml:space="preserve">平昌县2024年度城乡居民基本医疗保险政策                                            </t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="C61" t="inlineStr">
         <is>
           <t>2023-09-11</t>
         </is>
       </c>
-      <c r="D57" t="n">
-        <v>369</v>
+      <c r="D61" t="n">
+        <v>406</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A34:E34"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A55:D55"/>
-    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A50:D50"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/pcxzf/pcxzf/jiancefawenjian/网站监测反馈v3.0.xlsx
+++ b/pcxzf/pcxzf/jiancefawenjian/网站监测反馈v3.0.xlsx
@@ -423,7 +423,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K61"/>
+  <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,19 +442,19 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>一、法定主动公开内容栏目监测</t>
+          <t>五、基层政务公开专栏监测</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>检测时间：2024-10-21 10:30:39</t>
+          <t>检测时间：2025-02-14 17:50:39</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>1.栏目超期情况监测:以下位置栏目已超期，请责任部门更新</t>
+          <t>1.以下位置内容条数少于4条</t>
         </is>
       </c>
       <c r="B2" s="2" t="n"/>
@@ -463,66 +463,38 @@
       <c r="E2" s="2" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="A3" t="inlineStr">
         <is>
           <t>单位名称</t>
         </is>
       </c>
-      <c r="B3" s="2" t="inlineStr">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>领域</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>一级事项</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>二级事项</t>
+        </is>
+      </c>
+      <c r="J3" s="2" t="inlineStr">
+        <is>
+          <t>栏目更新检测标准</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="J4" t="inlineStr">
         <is>
           <t>栏目名称</t>
         </is>
       </c>
-      <c r="C3" s="2" t="inlineStr">
-        <is>
-          <t>更新标题</t>
-        </is>
-      </c>
-      <c r="D3" s="2" t="inlineStr">
-        <is>
-          <t>最后更新时间</t>
-        </is>
-      </c>
-      <c r="E3" s="2" t="inlineStr">
-        <is>
-          <t>超期天数</t>
-        </is>
-      </c>
-      <c r="J3" s="2" t="inlineStr">
-        <is>
-          <t>栏目更新检测标准</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>平昌县经济和信息化局</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>统计信息</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1-5月平昌县规上工业企业实现总产值                                            </t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2024-06-20</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>123</v>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>栏目名称</t>
-        </is>
-      </c>
       <c r="K4" t="inlineStr">
         <is>
           <t>超期时间</t>
@@ -530,29 +502,15 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>平昌县财政局</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>其他法定信息</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">平昌县惠民惠农财政补贴资金“一卡通”政策汇编                                            </t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2024-07-22</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>91</v>
-      </c>
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>2.以下位置最近更新时间大于330天</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="n"/>
+      <c r="C5" s="2" t="n"/>
+      <c r="D5" s="2" t="n"/>
+      <c r="E5" s="2" t="n"/>
       <c r="J5" t="inlineStr">
         <is>
           <t>机关简介</t>
@@ -565,26 +523,23 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>平昌县交通运输局</t>
+          <t>单位名称</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>行政权力</t>
+          <t>领域</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve">平昌县交通运输局行政许可事项受理公示                                            </t>
+          <t>一级事项</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2024-07-29</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>84</v>
+          <t>二级事项</t>
+        </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -598,26 +553,23 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>平昌县文化广播电视体育和旅游局</t>
+          <t>平昌县农业农村局</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>其他法定信息</t>
+          <t>涉农补贴</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t xml:space="preserve">平昌县文化广播电视体育和旅游局关于2023年度广播电视户户通运行维护资金绩效评价报告                                            </t>
+          <t>农业生产发展资金</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2024-08-01</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>81</v>
+          <t>农机购置补贴</t>
+        </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -631,26 +583,23 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>平昌县卫生健康局</t>
+          <t>平昌县农业农村局</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>其他法定信息</t>
+          <t>涉农补贴</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve">平昌县卫生健康局关于2023年部门整体支出绩效评价的报告                                            </t>
+          <t>农业生产发展资金</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2024-07-29</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>84</v>
+          <t>耕地地力保护</t>
+        </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -664,26 +613,23 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>平昌县审计局</t>
+          <t>平昌县农业农村局</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>其他法定信息</t>
+          <t>涉农补贴</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t xml:space="preserve">关于调整县委审计委员会组成人员的通知                                            </t>
+          <t>农业生产发展资金</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2024-07-17</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>96</v>
+          <t>种粮一次性补贴</t>
+        </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -697,26 +643,23 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>巴中市平昌生态环境局</t>
+          <t>平昌县农业农村局</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>预算/决算</t>
+          <t>涉农补贴</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t xml:space="preserve">巴中市平昌生态环境局2022年度单位决算                                            </t>
+          <t>农业生产发展资金</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2023-10-13</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>374</v>
+          <t>稻谷补贴</t>
+        </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -730,26 +673,23 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>平昌县医疗保障局</t>
+          <t>平昌县市场监督管理局</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>统计信息</t>
+          <t>食品药品</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t xml:space="preserve">2023年度平昌县医疗费用报费情况                                            </t>
+          <t>行政审批</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2024-06-07</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>136</v>
+          <t>食品生产经营许可基本信息</t>
+        </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -763,26 +703,23 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>平昌县行政审批和数据局</t>
+          <t>平昌县市场监督管理局</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>放管服改革</t>
+          <t>食品药品</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t xml:space="preserve">【优化营商环境】白衣镇抓好并联审批落地提升政务服务水平                                            </t>
+          <t>监督检查</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2022-09-05</t>
-        </is>
-      </c>
-      <c r="E12" t="n">
-        <v>777</v>
+          <t>食品生产经营监督检查</t>
+        </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -796,26 +733,23 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>平昌县金宝新区管理委员会</t>
+          <t>平昌县市场监督管理局</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>统计信息</t>
+          <t>食品药品</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t xml:space="preserve">金宝新区环境综合治理情况统计                                            </t>
+          <t>监督检查</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2024-07-25</t>
-        </is>
-      </c>
-      <c r="E13" t="n">
-        <v>88</v>
+          <t>由县级组织的医疗器械抽检</t>
+        </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -829,26 +763,23 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>平昌县金宝新区管理委员会</t>
+          <t>平昌县市场监督管理局</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>民生保障</t>
+          <t>食品药品</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t xml:space="preserve">金宝新区民政资金对象专项检查工作开展情况报告                                            </t>
+          <t>公共服务</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2024-07-25</t>
-        </is>
-      </c>
-      <c r="E14" t="n">
-        <v>88</v>
+          <t>食品用药安全宣传和消费提示警示</t>
+        </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -862,26 +793,23 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>平昌县金宝新区管理委员会</t>
+          <t>平昌县民政局</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>其他法定信息</t>
+          <t>社会救助</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t xml:space="preserve">金宝新区2024年扫黑除恶工作情况                                            </t>
+          <t>最低生活保障</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2024-07-25</t>
-        </is>
-      </c>
-      <c r="E15" t="n">
-        <v>88</v>
+          <t>政策法规文件</t>
+        </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -895,26 +823,23 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>平昌县白衣镇人民政府</t>
+          <t>平昌县教育科技局</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>统计信息</t>
+          <t>义务教育</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t xml:space="preserve">平昌县白衣镇村居委会完整名称核实表                                            </t>
+          <t>教育概况</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2024-07-17</t>
-        </is>
-      </c>
-      <c r="E16" t="n">
-        <v>96</v>
+          <t>教育统计数据</t>
+        </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -928,26 +853,23 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>平昌县白衣镇人民政府</t>
+          <t>平昌县教育科技局</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>民生保障</t>
+          <t>义务教育</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024年新增高龄人口                                            </t>
+          <t>学生管理</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2024-07-23</t>
-        </is>
-      </c>
-      <c r="E17" t="n">
-        <v>90</v>
+          <t>学生评优奖励</t>
+        </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -961,26 +883,23 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>平昌县白衣镇人民政府</t>
+          <t>平昌县教育科技局</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>其他法定信息</t>
+          <t>义务教育</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t xml:space="preserve">白衣镇2024年艾滋病防治工作实施方案                                            </t>
+          <t>教师管理</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2024-07-22</t>
-        </is>
-      </c>
-      <c r="E18" t="n">
-        <v>91</v>
+          <t>教师培训</t>
+        </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -994,26 +913,23 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>平昌县西兴镇人民政府</t>
+          <t>平昌县教育科技局</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>民生保障</t>
+          <t>义务教育</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t xml:space="preserve">西兴镇2024年食品药品安全工作实施方案                                            </t>
+          <t>教育督导</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2024-07-26</t>
-        </is>
-      </c>
-      <c r="E19" t="n">
-        <v>87</v>
+          <t>机构队伍</t>
+        </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1027,26 +943,23 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>平昌县西兴镇人民政府</t>
+          <t>平昌县司法局</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>其他法定信息</t>
+          <t>公共法律</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t xml:space="preserve">西兴镇道路管护制度                                            </t>
+          <t>法治宣传教育</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2024-07-22</t>
-        </is>
-      </c>
-      <c r="E20" t="n">
-        <v>91</v>
+          <t>推广法治文化服务</t>
+        </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1060,26 +973,23 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>平昌县龙岗镇人民政府</t>
+          <t>平昌县司法局</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>民生保障</t>
+          <t>公共法律</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t xml:space="preserve">龙岗镇人关于开展高龄津贴发放对象年审工作的通知                                            </t>
+          <t>法律援助</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2024-07-19</t>
-        </is>
-      </c>
-      <c r="E21" t="n">
-        <v>94</v>
+          <t>法律援助办案人员办案补贴的审核发放</t>
+        </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1093,26 +1003,23 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>平昌县龙岗镇人民政府</t>
+          <t>平昌县司法局</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>其他法定信息</t>
+          <t>公共法律</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t xml:space="preserve">龙岗镇关于艾滋病重点领域综合防治工作实施方案                                            </t>
+          <t>法律查询服务</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2024-07-18</t>
-        </is>
-      </c>
-      <c r="E22" t="n">
-        <v>95</v>
+          <t>法律服务机构、人员信息查询服务</t>
+        </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -1126,26 +1033,18 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>平昌县土垭镇人民政府</t>
+          <t>平昌县自然资源和规划局</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>民生保障</t>
+          <t>自然资源</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t xml:space="preserve">开展特殊困难老年人探访关爱服务实施方案的通知                                            </t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>2024-07-23</t>
-        </is>
-      </c>
-      <c r="E23" t="n">
-        <v>90</v>
+          <t>调查监测</t>
+        </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -1159,26 +1058,18 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>平昌县佛楼镇人民政府</t>
+          <t>平昌县自然资源和规划局</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>其他法定信息</t>
+          <t>自然资源</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t xml:space="preserve">佛楼镇集中开展“四防”安全宣传教育活动工作方案                                            </t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>2024-08-01</t>
-        </is>
-      </c>
-      <c r="E24" t="n">
-        <v>81</v>
+          <t>生态修复</t>
+        </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -1192,26 +1083,18 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>平昌县响滩镇人民政府</t>
+          <t>平昌县自然资源和规划局</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>统计信息</t>
+          <t>自然资源</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t xml:space="preserve">响滩镇2024年二季度蔬菜、瓜果生产情况统计表                                            </t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>2024-07-30</t>
-        </is>
-      </c>
-      <c r="E25" t="n">
-        <v>83</v>
+          <t>耕地保护</t>
+        </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -1225,26 +1108,18 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>平昌县驷马镇人民政府</t>
+          <t>平昌县自然资源和规划局</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>统计信息</t>
+          <t>自然资源</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t xml:space="preserve">驷马镇2024年二季度蔬菜、瓜果生产情况统计                                            </t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>2024-07-12</t>
-        </is>
-      </c>
-      <c r="E26" t="n">
-        <v>101</v>
+          <t>地质灾害预防和治理</t>
+        </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -1258,26 +1133,18 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>平昌县驷马镇人民政府</t>
+          <t>平昌县综合行政执法局</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>民生保障</t>
+          <t>城市综合执法</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t xml:space="preserve">驷马镇安全生产治本攻坚三年行动实施方案(2024-2026年)                                            </t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>2024-07-05</t>
-        </is>
-      </c>
-      <c r="E27" t="n">
-        <v>108</v>
+          <t>行政许可</t>
+        </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -1291,26 +1158,18 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>平昌县驷马镇人民政府</t>
+          <t>平昌县财政局</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>其他法定信息</t>
+          <t>财政预决算</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t xml:space="preserve">驷马镇关于切实做好夏季防溺水工作的通知                                            </t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>2024-07-05</t>
-        </is>
-      </c>
-      <c r="E28" t="n">
-        <v>108</v>
+          <t>财政预算</t>
+        </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -1324,26 +1183,18 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>平昌县青云镇人民政府</t>
+          <t>平昌县统计局</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>民生保障</t>
+          <t>统计领域</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t xml:space="preserve">青云镇关于开展“红色代办队”帮代办服务的实施方案                                            </t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>2024-07-25</t>
-        </is>
-      </c>
-      <c r="E29" t="n">
-        <v>88</v>
+          <t>行政处罚信息公示</t>
+        </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -1357,26 +1208,18 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>平昌县青云镇人民政府</t>
+          <t>平昌县统计局</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>其他法定信息</t>
+          <t>统计领域</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t xml:space="preserve">青云镇大气污染防治工作方法                                            </t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>2024-07-25</t>
-        </is>
-      </c>
-      <c r="E30" t="n">
-        <v>88</v>
+          <t>统计执法监督</t>
+        </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -1390,26 +1233,18 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>平昌县澌岸镇人民政府</t>
+          <t>县公共资源交易服务中心</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>民生保障</t>
+          <t>公共资源交易</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t xml:space="preserve">澌岸镇2024年7月困难救助公示表                                            </t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>2024-07-26</t>
-        </is>
-      </c>
-      <c r="E31" t="n">
-        <v>87</v>
+          <t>国有土地使用权出让信息</t>
+        </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -1423,26 +1258,18 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>平昌县澌岸镇人民政府</t>
+          <t>平昌县交通运输局</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>其他法定信息</t>
+          <t>交通运输</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t xml:space="preserve">平昌县澌岸镇人民政府2023年部门整体支出绩效评价报告                                            </t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>2024-07-26</t>
-        </is>
-      </c>
-      <c r="E32" t="n">
-        <v>87</v>
+          <t>行政处罚</t>
+        </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -1456,26 +1283,18 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>平昌县元山镇人民政府</t>
+          <t>平昌县交通运输局</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>统计信息</t>
+          <t>交通运输</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t xml:space="preserve">元山镇2024年二季度中药材数据台账                                            </t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>2024-07-29</t>
-        </is>
-      </c>
-      <c r="E33" t="n">
-        <v>84</v>
+          <t>规划计划</t>
+        </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -1489,26 +1308,18 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>平昌县灵山镇人民政府</t>
+          <t>平昌县交通运输局</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>民生保障</t>
+          <t>交通运输</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t xml:space="preserve">灵山镇2024年安全宣传“五进”工作实施方案                                            </t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>2024-07-29</t>
-        </is>
-      </c>
-      <c r="E34" t="n">
-        <v>84</v>
+          <t>建设管理</t>
+        </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -1522,26 +1333,18 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>平昌县灵山镇人民政府</t>
+          <t>平昌县应急管理局</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>其他法定信息</t>
+          <t>安全生产</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t xml:space="preserve">平昌县灵山镇便民服务中心管理制度                                            </t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>2024-07-26</t>
-        </is>
-      </c>
-      <c r="E35" t="n">
-        <v>87</v>
+          <t>行政强制</t>
+        </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -1555,26 +1358,18 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>平昌县土兴镇人民政府</t>
+          <t>平昌县应急管理局</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>规划计划</t>
+          <t>救灾领域</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t xml:space="preserve">土兴镇2023年安全生产应急管理工作计划                                            </t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>2023-10-19</t>
-        </is>
-      </c>
-      <c r="E36" t="n">
-        <v>368</v>
+          <t>备灾管理</t>
+        </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -1588,26 +1383,18 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>平昌县三十二梁镇人民政府</t>
+          <t>平昌县应急管理局</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>其他法定信息</t>
+          <t>救灾领域</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t xml:space="preserve">三十二梁旅游景区研学基地拓片区域全面竣工                                            </t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>2024-07-22</t>
-        </is>
-      </c>
-      <c r="E37" t="n">
-        <v>91</v>
+          <t>灾后救助</t>
+        </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
@@ -1621,26 +1408,18 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>平昌县邱家镇人民政府</t>
+          <t>平昌县应急管理局</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>统计信息</t>
+          <t>救灾领域</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t xml:space="preserve">邱家镇2024年二季度经济作物指导性任务表                                            </t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>2024-07-17</t>
-        </is>
-      </c>
-      <c r="E38" t="n">
-        <v>96</v>
+          <t>灾害救助</t>
+        </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -1652,32 +1431,9 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>平昌县邱家镇人民政府</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>其他法定信息</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t xml:space="preserve">关于对2024年汛期乡村公路水毁安全隐患进行整治的通知                                            </t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>2024-07-30</t>
-        </is>
-      </c>
-      <c r="E39" t="n">
-        <v>83</v>
-      </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>放管服改革</t>
+          <t>卫生健康</t>
         </is>
       </c>
       <c r="K39" t="n">
@@ -1685,9 +1441,18 @@
       </c>
     </row>
     <row r="40">
+      <c r="A40" s="2" t="inlineStr">
+        <is>
+          <t>3.以下位置相邻文章发布时间间隔大于90天</t>
+        </is>
+      </c>
+      <c r="B40" s="2" t="n"/>
+      <c r="C40" s="2" t="n"/>
+      <c r="D40" s="2" t="n"/>
+      <c r="E40" s="2" t="n"/>
       <c r="J40" t="inlineStr">
         <is>
-          <t>卫生健康</t>
+          <t>价格监测</t>
         </is>
       </c>
       <c r="K40" t="n">
@@ -1695,94 +1460,29 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="2" t="inlineStr">
-        <is>
-          <t>2.死链监测：以下单位对应栏目无内容，请上传内容或审核发布</t>
-        </is>
-      </c>
-      <c r="B41" s="2" t="n"/>
-      <c r="C41" s="2" t="n"/>
-      <c r="D41" s="2" t="n"/>
-      <c r="E41" s="2" t="n"/>
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>单位名称</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>领域</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>一级事项</t>
+        </is>
+      </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>价格监测</t>
+          <t>民生保障</t>
         </is>
       </c>
       <c r="K41" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="inlineStr">
-        <is>
-          <t>单位名称</t>
-        </is>
-      </c>
-      <c r="B42" s="2" t="inlineStr">
-        <is>
-          <t>栏目名称</t>
-        </is>
-      </c>
-      <c r="C42" s="2" t="n"/>
-      <c r="D42" s="2" t="n"/>
-      <c r="E42" s="2" t="n"/>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>民生保障</t>
-        </is>
-      </c>
-      <c r="K42" t="n">
         <v>80</v>
       </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="inlineStr">
-        <is>
-          <t>3.统计信息缺失年份：以下单位缺失对应年份统计信息，请补充</t>
-        </is>
-      </c>
-      <c r="B44" s="2" t="n"/>
-      <c r="C44" s="2" t="n"/>
-      <c r="D44" s="2" t="n"/>
-      <c r="E44" s="2" t="n"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="inlineStr">
-        <is>
-          <t>单位名称</t>
-        </is>
-      </c>
-      <c r="B45" s="2" t="inlineStr">
-        <is>
-          <t>缺失年份</t>
-        </is>
-      </c>
-      <c r="C45" s="2" t="n"/>
-      <c r="D45" s="2" t="n"/>
-      <c r="E45" s="2" t="n"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="inlineStr">
-        <is>
-          <t>二、政府信息公开年报栏目缺失情况监测</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="inlineStr">
-        <is>
-          <t>单位名称</t>
-        </is>
-      </c>
-      <c r="B48" s="2" t="inlineStr">
-        <is>
-          <t>缺失年份</t>
-        </is>
-      </c>
-      <c r="C48" s="2" t="n"/>
-      <c r="D48" s="2" t="n"/>
-      <c r="E48" s="2" t="n"/>
     </row>
     <row r="49">
       <c r="J49" s="2" t="inlineStr">
@@ -1792,11 +1492,6 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="inlineStr">
-        <is>
-          <t>三、机构职能页监测</t>
-        </is>
-      </c>
       <c r="J50" t="inlineStr">
         <is>
           <t>1.每个事项的总内容不少于4条</t>
@@ -1804,11 +1499,6 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>1.以下位置未发布，请管理员处理</t>
-        </is>
-      </c>
       <c r="J51" t="inlineStr">
         <is>
           <t>2.最新更新时间不大于90天</t>
@@ -1823,94 +1513,15 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>2.以下位置链接状态错误，请管理员检查</t>
-        </is>
-      </c>
       <c r="J53" t="inlineStr">
         <is>
           <t>注意：除办事服务等不易发布的内容外，其余链接形式的内容应尽量粘贴复制而不是直接跳转，否则机器人无法监测</t>
         </is>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>3.以下单位机关简介中无领导分管政务公开，请对应部门修改</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>县经济和信息化局</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>4.以下单位机关简介中时间表述错误，请对应部门修改</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="inlineStr">
-        <is>
-          <t>四、政府信息政策栏超期情况</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="2" t="inlineStr">
-        <is>
-          <t>单位名称</t>
-        </is>
-      </c>
-      <c r="B60" s="2" t="inlineStr">
-        <is>
-          <t>更新标题</t>
-        </is>
-      </c>
-      <c r="C60" s="2" t="inlineStr">
-        <is>
-          <t>最后更新时间</t>
-        </is>
-      </c>
-      <c r="D60" s="2" t="inlineStr">
-        <is>
-          <t>超期天数</t>
-        </is>
-      </c>
-      <c r="E60" s="2" t="n"/>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>平昌县医疗保障局</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t xml:space="preserve">平昌县2024年度城乡居民基本医疗保险政策                                            </t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>2023-09-11</t>
-        </is>
-      </c>
-      <c r="D61" t="n">
-        <v>406</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A59:D59"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A50:D50"/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/pcxzf/pcxzf/jiancefawenjian/网站监测反馈v3.0.xlsx
+++ b/pcxzf/pcxzf/jiancefawenjian/网站监测反馈v3.0.xlsx
@@ -447,7 +447,7 @@
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>检测时间：2025-02-14 17:50:39</t>
+          <t>检测时间：2025-02-17 09:18:50</t>
         </is>
       </c>
     </row>
@@ -553,22 +553,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>平昌县农业农村局</t>
+          <t>平昌县人力资源和社会保障局</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>涉农补贴</t>
+          <t>就业领域</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>农业生产发展资金</t>
+          <t>行政许可</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>农机购置补贴</t>
+          <t>劳务派遣经营许可（权限内）</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -583,22 +583,22 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>平昌县农业农村局</t>
+          <t>平昌县人力资源和社会保障局</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>涉农补贴</t>
+          <t>就业领域</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>农业生产发展资金</t>
+          <t>行政许可</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>耕地地力保护</t>
+          <t>经营性人力资源服务机构从事职业中介活动许可（权限内）</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -613,22 +613,22 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>平昌县农业农村局</t>
+          <t>平昌县人力资源和社会保障局</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>涉农补贴</t>
+          <t>就业领域</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>农业生产发展资金</t>
+          <t>行政许可</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>种粮一次性补贴</t>
+          <t xml:space="preserve">民办职业培训学校设立审批(县级) </t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -643,22 +643,22 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>平昌县农业农村局</t>
+          <t>平昌县人力资源和社会保障局</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>涉农补贴</t>
+          <t>就业领域</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>农业生产发展资金</t>
+          <t>行政处罚</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>稻谷补贴</t>
+          <t>对人力资源服务机构违法行为的处罚</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -673,22 +673,22 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>平昌县市场监督管理局</t>
+          <t>平昌县人力资源和社会保障局</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>食品药品</t>
+          <t>就业领域</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>行政审批</t>
+          <t>行政处罚</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>食品生产经营许可基本信息</t>
+          <t>其他行政处罚</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -703,22 +703,22 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>平昌县市场监督管理局</t>
+          <t>平昌县农业农村局</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>食品药品</t>
+          <t>涉农补贴</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>监督检查</t>
+          <t>农业生产发展资金</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>食品生产经营监督检查</t>
+          <t>农机购置补贴</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -733,22 +733,22 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>平昌县市场监督管理局</t>
+          <t>平昌县农业农村局</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>食品药品</t>
+          <t>涉农补贴</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>监督检查</t>
+          <t>农业生产发展资金</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>由县级组织的医疗器械抽检</t>
+          <t>耕地地力保护</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -763,22 +763,22 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>平昌县市场监督管理局</t>
+          <t>平昌县农业农村局</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>食品药品</t>
+          <t>涉农补贴</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>公共服务</t>
+          <t>农业生产发展资金</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>食品用药安全宣传和消费提示警示</t>
+          <t>种粮一次性补贴</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -793,22 +793,22 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>平昌县民政局</t>
+          <t>平昌县农业农村局</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>社会救助</t>
+          <t>涉农补贴</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>最低生活保障</t>
+          <t>农业生产发展资金</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>政策法规文件</t>
+          <t>稻谷补贴</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -823,22 +823,22 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>平昌县教育科技局</t>
+          <t>平昌县市场监督管理局</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>义务教育</t>
+          <t>食品药品</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>教育概况</t>
+          <t>行政审批</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>教育统计数据</t>
+          <t>食品生产经营许可基本信息</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -853,22 +853,22 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>平昌县教育科技局</t>
+          <t>平昌县市场监督管理局</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>义务教育</t>
+          <t>食品药品</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>学生管理</t>
+          <t>监督检查</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>学生评优奖励</t>
+          <t>食品生产经营监督检查</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -883,22 +883,22 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>平昌县教育科技局</t>
+          <t>平昌县市场监督管理局</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>义务教育</t>
+          <t>食品药品</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>教师管理</t>
+          <t>监督检查</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>教师培训</t>
+          <t>由县级组织的医疗器械抽检</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -913,22 +913,22 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>平昌县教育科技局</t>
+          <t>平昌县市场监督管理局</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>义务教育</t>
+          <t>食品药品</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>教育督导</t>
+          <t>公共服务</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>机构队伍</t>
+          <t>食品用药安全宣传和消费提示警示</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -943,22 +943,22 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>平昌县司法局</t>
+          <t>平昌县民政局</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>公共法律</t>
+          <t>社会救助</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>法治宣传教育</t>
+          <t>最低生活保障</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>推广法治文化服务</t>
+          <t>政策法规文件</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -973,22 +973,22 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>平昌县司法局</t>
+          <t>平昌县教育科技局</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>公共法律</t>
+          <t>义务教育</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>法律援助</t>
+          <t>教育概况</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>法律援助办案人员办案补贴的审核发放</t>
+          <t>教育统计数据</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1003,22 +1003,22 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>平昌县司法局</t>
+          <t>平昌县教育科技局</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>公共法律</t>
+          <t>义务教育</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>法律查询服务</t>
+          <t>学生管理</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>法律服务机构、人员信息查询服务</t>
+          <t>学生评优奖励</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1033,17 +1033,22 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>平昌县自然资源和规划局</t>
+          <t>平昌县教育科技局</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>自然资源</t>
+          <t>义务教育</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>调查监测</t>
+          <t>教师管理</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>教师培训</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1058,17 +1063,22 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>平昌县自然资源和规划局</t>
+          <t>平昌县教育科技局</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>自然资源</t>
+          <t>义务教育</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>生态修复</t>
+          <t>教育督导</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>机构队伍</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1083,17 +1093,22 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>平昌县自然资源和规划局</t>
+          <t>平昌县司法局</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>自然资源</t>
+          <t>公共法律</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>耕地保护</t>
+          <t>法治宣传教育</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>推广法治文化服务</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1108,17 +1123,22 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>平昌县自然资源和规划局</t>
+          <t>平昌县司法局</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>自然资源</t>
+          <t>公共法律</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>地质灾害预防和治理</t>
+          <t>公证</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>公证员一般任职执业审核、考核任职执业审核</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1133,17 +1153,22 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>平昌县综合行政执法局</t>
+          <t>平昌县司法局</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>城市综合执法</t>
+          <t>公共法律</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>行政许可</t>
+          <t>法律援助</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>法律援助办案人员办案补贴的审核发放</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1158,17 +1183,22 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>平昌县财政局</t>
+          <t>平昌县司法局</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>财政预决算</t>
+          <t>公共法律</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>财政预算</t>
+          <t>法律查询服务</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>法律服务机构、人员信息查询服务</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1183,17 +1213,17 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>平昌县统计局</t>
+          <t>平昌县自然资源和规划局</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>统计领域</t>
+          <t>自然资源</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>行政处罚信息公示</t>
+          <t>调查监测</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1208,17 +1238,17 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>平昌县统计局</t>
+          <t>平昌县自然资源和规划局</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>统计领域</t>
+          <t>自然资源</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>统计执法监督</t>
+          <t>生态修复</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1233,17 +1263,17 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>县公共资源交易服务中心</t>
+          <t>平昌县自然资源和规划局</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>公共资源交易</t>
+          <t>自然资源</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>国有土地使用权出让信息</t>
+          <t>耕地保护</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1258,17 +1288,17 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>平昌县交通运输局</t>
+          <t>平昌县自然资源和规划局</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>交通运输</t>
+          <t>自然资源</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>行政处罚</t>
+          <t>地质灾害预防和治理</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1283,17 +1313,17 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>平昌县交通运输局</t>
+          <t>平昌县综合行政执法局</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>交通运输</t>
+          <t>城市综合执法</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>规划计划</t>
+          <t>行政许可</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1308,17 +1338,17 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>平昌县交通运输局</t>
+          <t>平昌县财政局</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>交通运输</t>
+          <t>财政预决算</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>建设管理</t>
+          <t>财政预算</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -1333,17 +1363,17 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>平昌县应急管理局</t>
+          <t>平昌县统计局</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>安全生产</t>
+          <t>统计领域</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>行政强制</t>
+          <t>行政处罚信息公示</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -1358,17 +1388,17 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>平昌县应急管理局</t>
+          <t>平昌县统计局</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>救灾领域</t>
+          <t>统计领域</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>备灾管理</t>
+          <t>统计执法监督</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -1383,17 +1413,17 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>平昌县应急管理局</t>
+          <t>县公共资源交易服务中心</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>救灾领域</t>
+          <t>公共资源交易</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>灾后救助</t>
+          <t>国有土地使用权出让信息</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -1408,17 +1438,17 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>平昌县应急管理局</t>
+          <t>平昌县交通运输局</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>救灾领域</t>
+          <t>交通运输</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>灾害救助</t>
+          <t>行政处罚</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -1431,6 +1461,21 @@
       </c>
     </row>
     <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>平昌县交通运输局</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>交通运输</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>规划计划</t>
+        </is>
+      </c>
       <c r="J39" t="inlineStr">
         <is>
           <t>卫生健康</t>
@@ -1441,15 +1486,21 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="2" t="inlineStr">
-        <is>
-          <t>3.以下位置相邻文章发布时间间隔大于90天</t>
-        </is>
-      </c>
-      <c r="B40" s="2" t="n"/>
-      <c r="C40" s="2" t="n"/>
-      <c r="D40" s="2" t="n"/>
-      <c r="E40" s="2" t="n"/>
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>平昌县交通运输局</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>交通运输</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>建设管理</t>
+        </is>
+      </c>
       <c r="J40" t="inlineStr">
         <is>
           <t>价格监测</t>
@@ -1462,17 +1513,17 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>单位名称</t>
+          <t>平昌县应急管理局</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>领域</t>
+          <t>安全生产</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>一级事项</t>
+          <t>行政强制</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -1482,6 +1533,85 @@
       </c>
       <c r="K41" t="n">
         <v>80</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>平昌县应急管理局</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>救灾领域</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>备灾管理</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>平昌县应急管理局</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>救灾领域</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>灾后救助</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>平昌县应急管理局</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>救灾领域</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>灾害救助</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="inlineStr">
+        <is>
+          <t>3.以下位置相邻文章发布时间间隔大于90天</t>
+        </is>
+      </c>
+      <c r="B46" s="2" t="n"/>
+      <c r="C46" s="2" t="n"/>
+      <c r="D46" s="2" t="n"/>
+      <c r="E46" s="2" t="n"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>单位名称</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>领域</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>一级事项</t>
+        </is>
       </c>
     </row>
     <row r="49">

--- a/pcxzf/pcxzf/jiancefawenjian/网站监测反馈v3.0.xlsx
+++ b/pcxzf/pcxzf/jiancefawenjian/网站监测反馈v3.0.xlsx
@@ -447,7 +447,7 @@
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>检测时间：2025-02-17 09:18:50</t>
+          <t>检测时间：2025-02-18 09:24:49</t>
         </is>
       </c>
     </row>
@@ -943,22 +943,22 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>平昌县民政局</t>
+          <t>平昌县教育科技局</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>社会救助</t>
+          <t>义务教育</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>最低生活保障</t>
+          <t>教育督导</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>政策法规文件</t>
+          <t>机构队伍</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -973,22 +973,22 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>平昌县教育科技局</t>
+          <t>平昌县司法局</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>义务教育</t>
+          <t>公共法律</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>教育概况</t>
+          <t>法治宣传教育</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>教育统计数据</t>
+          <t>推广法治文化服务</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1003,22 +1003,22 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>平昌县教育科技局</t>
+          <t>平昌县司法局</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>义务教育</t>
+          <t>公共法律</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>学生管理</t>
+          <t>公证</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>学生评优奖励</t>
+          <t>公证员一般任职执业审核、考核任职执业审核</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1033,22 +1033,22 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>平昌县教育科技局</t>
+          <t>平昌县司法局</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>义务教育</t>
+          <t>公共法律</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>教师管理</t>
+          <t>法律查询服务</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>教师培训</t>
+          <t>法律服务机构、人员信息查询服务</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1063,22 +1063,17 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>平昌县教育科技局</t>
+          <t>平昌县自然资源和规划局</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>义务教育</t>
+          <t>自然资源</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>教育督导</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>机构队伍</t>
+          <t>调查监测</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1093,22 +1088,17 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>平昌县司法局</t>
+          <t>平昌县自然资源和规划局</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>公共法律</t>
+          <t>自然资源</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>法治宣传教育</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>推广法治文化服务</t>
+          <t>生态修复</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1123,22 +1113,17 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>平昌县司法局</t>
+          <t>平昌县自然资源和规划局</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>公共法律</t>
+          <t>自然资源</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>公证</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>公证员一般任职执业审核、考核任职执业审核</t>
+          <t>耕地保护</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1153,22 +1138,17 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>平昌县司法局</t>
+          <t>平昌县自然资源和规划局</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>公共法律</t>
+          <t>自然资源</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>法律援助</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>法律援助办案人员办案补贴的审核发放</t>
+          <t>地质灾害预防和治理</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1183,22 +1163,17 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>平昌县司法局</t>
+          <t>平昌县综合行政执法局</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>公共法律</t>
+          <t>城市综合执法</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>法律查询服务</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>法律服务机构、人员信息查询服务</t>
+          <t>行政许可</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1213,17 +1188,17 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>平昌县自然资源和规划局</t>
+          <t>平昌县财政局</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>自然资源</t>
+          <t>财政预决算</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>调查监测</t>
+          <t>财政预算</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1238,17 +1213,17 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>平昌县自然资源和规划局</t>
+          <t>县公共资源交易服务中心</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>自然资源</t>
+          <t>公共资源交易</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>生态修复</t>
+          <t>国有土地使用权出让信息</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1263,17 +1238,17 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>平昌县自然资源和规划局</t>
+          <t>平昌县交通运输局</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>自然资源</t>
+          <t>交通运输</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>耕地保护</t>
+          <t>行政处罚</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1288,17 +1263,17 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>平昌县自然资源和规划局</t>
+          <t>平昌县交通运输局</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>自然资源</t>
+          <t>交通运输</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>地质灾害预防和治理</t>
+          <t>规划计划</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1313,17 +1288,17 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>平昌县综合行政执法局</t>
+          <t>平昌县交通运输局</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>城市综合执法</t>
+          <t>交通运输</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>行政许可</t>
+          <t>建设管理</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1338,17 +1313,17 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>平昌县财政局</t>
+          <t>平昌县应急管理局</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>财政预决算</t>
+          <t>安全生产</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>财政预算</t>
+          <t>行政强制</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -1363,17 +1338,17 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>平昌县统计局</t>
+          <t>平昌县应急管理局</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>统计领域</t>
+          <t>救灾领域</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>行政处罚信息公示</t>
+          <t>备灾管理</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -1388,17 +1363,17 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>平昌县统计局</t>
+          <t>平昌县应急管理局</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>统计领域</t>
+          <t>救灾领域</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>统计执法监督</t>
+          <t>灾后救助</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -1413,17 +1388,17 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>县公共资源交易服务中心</t>
+          <t>平昌县应急管理局</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>公共资源交易</t>
+          <t>救灾领域</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>国有土地使用权出让信息</t>
+          <t>灾害救助</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -1436,21 +1411,6 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>平昌县交通运输局</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>交通运输</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>行政处罚</t>
-        </is>
-      </c>
       <c r="J38" t="inlineStr">
         <is>
           <t>公共文化服务</t>
@@ -1461,21 +1421,15 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>平昌县交通运输局</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>交通运输</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>规划计划</t>
-        </is>
-      </c>
+      <c r="A39" s="2" t="inlineStr">
+        <is>
+          <t>3.以下位置相邻文章发布时间间隔大于90天</t>
+        </is>
+      </c>
+      <c r="B39" s="2" t="n"/>
+      <c r="C39" s="2" t="n"/>
+      <c r="D39" s="2" t="n"/>
+      <c r="E39" s="2" t="n"/>
       <c r="J39" t="inlineStr">
         <is>
           <t>卫生健康</t>
@@ -1488,17 +1442,17 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>平昌县交通运输局</t>
+          <t>单位名称</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>交通运输</t>
+          <t>领域</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>建设管理</t>
+          <t>一级事项</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -1511,21 +1465,6 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>平昌县应急管理局</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>安全生产</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>行政强制</t>
-        </is>
-      </c>
       <c r="J41" t="inlineStr">
         <is>
           <t>民生保障</t>
@@ -1533,85 +1472,6 @@
       </c>
       <c r="K41" t="n">
         <v>80</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>平昌县应急管理局</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>救灾领域</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>备灾管理</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>平昌县应急管理局</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>救灾领域</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>灾后救助</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>平昌县应急管理局</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>救灾领域</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>灾害救助</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="inlineStr">
-        <is>
-          <t>3.以下位置相邻文章发布时间间隔大于90天</t>
-        </is>
-      </c>
-      <c r="B46" s="2" t="n"/>
-      <c r="C46" s="2" t="n"/>
-      <c r="D46" s="2" t="n"/>
-      <c r="E46" s="2" t="n"/>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>单位名称</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>领域</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>一级事项</t>
-        </is>
       </c>
     </row>
     <row r="49">

--- a/pcxzf/pcxzf/jiancefawenjian/网站监测反馈v3.0.xlsx
+++ b/pcxzf/pcxzf/jiancefawenjian/网站监测反馈v3.0.xlsx
@@ -447,7 +447,7 @@
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>检测时间：2025-02-18 09:24:49</t>
+          <t>检测时间：2025-02-26 09:58:43</t>
         </is>
       </c>
     </row>
@@ -703,22 +703,22 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>平昌县农业农村局</t>
+          <t>平昌县市场监督管理局</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>涉农补贴</t>
+          <t>食品药品</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>农业生产发展资金</t>
+          <t>监督检查</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>农机购置补贴</t>
+          <t>由县级组织的医疗器械抽检</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -733,22 +733,22 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>平昌县农业农村局</t>
+          <t>平昌县市场监督管理局</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>涉农补贴</t>
+          <t>食品药品</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>农业生产发展资金</t>
+          <t>公共服务</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>耕地地力保护</t>
+          <t>食品用药安全宣传和消费提示警示</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -763,22 +763,17 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>平昌县农业农村局</t>
+          <t>平昌县自然资源和规划局</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>涉农补贴</t>
+          <t>自然资源</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>农业生产发展资金</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>种粮一次性补贴</t>
+          <t>耕地保护</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -793,22 +788,17 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>平昌县农业农村局</t>
+          <t>平昌县财政局</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>涉农补贴</t>
+          <t>财政预决算</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>农业生产发展资金</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>稻谷补贴</t>
+          <t>财政预算</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -823,22 +813,17 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>平昌县市场监督管理局</t>
+          <t>县公共资源交易服务中心</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>食品药品</t>
+          <t>公共资源交易</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>行政审批</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>食品生产经营许可基本信息</t>
+          <t>国有土地使用权出让信息</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -851,26 +836,6 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>平昌县市场监督管理局</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>食品药品</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>监督检查</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>食品生产经营监督检查</t>
-        </is>
-      </c>
       <c r="J17" t="inlineStr">
         <is>
           <t>教育科技</t>
@@ -881,26 +846,15 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>平昌县市场监督管理局</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>食品药品</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>监督检查</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>由县级组织的医疗器械抽检</t>
-        </is>
-      </c>
+      <c r="A18" s="2" t="inlineStr">
+        <is>
+          <t>3.以下位置相邻文章发布时间间隔大于90天</t>
+        </is>
+      </c>
+      <c r="B18" s="2" t="n"/>
+      <c r="C18" s="2" t="n"/>
+      <c r="D18" s="2" t="n"/>
+      <c r="E18" s="2" t="n"/>
       <c r="J18" t="inlineStr">
         <is>
           <t>养老服务</t>
@@ -913,22 +867,17 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>平昌县市场监督管理局</t>
+          <t>单位名称</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>食品药品</t>
+          <t>领域</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>公共服务</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>食品用药安全宣传和消费提示警示</t>
+          <t>一级事项</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -941,26 +890,6 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>平昌县教育科技局</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>义务教育</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>教育督导</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>机构队伍</t>
-        </is>
-      </c>
       <c r="J20" t="inlineStr">
         <is>
           <t>就业创业</t>
@@ -971,26 +900,6 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>平昌县司法局</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>公共法律</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>法治宣传教育</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>推广法治文化服务</t>
-        </is>
-      </c>
       <c r="J21" t="inlineStr">
         <is>
           <t>社会保障</t>
@@ -1001,26 +910,6 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>平昌县司法局</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>公共法律</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>公证</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>公证员一般任职执业审核、考核任职执业审核</t>
-        </is>
-      </c>
       <c r="J22" t="inlineStr">
         <is>
           <t>招考录用</t>
@@ -1031,26 +920,6 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>平昌县司法局</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>公共法律</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>法律查询服务</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>法律服务机构、人员信息查询服务</t>
-        </is>
-      </c>
       <c r="J23" t="inlineStr">
         <is>
           <t>司法监督</t>
@@ -1061,21 +930,6 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>平昌县自然资源和规划局</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>自然资源</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>调查监测</t>
-        </is>
-      </c>
       <c r="J24" t="inlineStr">
         <is>
           <t>价格信息</t>
@@ -1086,21 +940,6 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>平昌县自然资源和规划局</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>自然资源</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>生态修复</t>
-        </is>
-      </c>
       <c r="J25" t="inlineStr">
         <is>
           <t>住房保障</t>
@@ -1111,21 +950,6 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>平昌县自然资源和规划局</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>自然资源</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>耕地保护</t>
-        </is>
-      </c>
       <c r="J26" t="inlineStr">
         <is>
           <t>涉农补贴</t>
@@ -1136,21 +960,6 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>平昌县自然资源和规划局</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>自然资源</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>地质灾害预防和治理</t>
-        </is>
-      </c>
       <c r="J27" t="inlineStr">
         <is>
           <t>农产品价格监测</t>
@@ -1161,21 +970,6 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>平昌县综合行政执法局</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>城市综合执法</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>行政许可</t>
-        </is>
-      </c>
       <c r="J28" t="inlineStr">
         <is>
           <t>应急管理</t>
@@ -1186,21 +980,6 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>平昌县财政局</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>财政预决算</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>财政预算</t>
-        </is>
-      </c>
       <c r="J29" t="inlineStr">
         <is>
           <t>监测预警</t>
@@ -1211,21 +990,6 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>县公共资源交易服务中心</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>公共资源交易</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>国有土地使用权出让信息</t>
-        </is>
-      </c>
       <c r="J30" t="inlineStr">
         <is>
           <t>市场监管</t>
@@ -1236,21 +1000,6 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>平昌县交通运输局</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>交通运输</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>行政处罚</t>
-        </is>
-      </c>
       <c r="J31" t="inlineStr">
         <is>
           <t>环评公示</t>
@@ -1261,21 +1010,6 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>平昌县交通运输局</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>交通运输</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>规划计划</t>
-        </is>
-      </c>
       <c r="J32" t="inlineStr">
         <is>
           <t>环保督察</t>
@@ -1286,21 +1020,6 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>平昌县交通运输局</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>交通运输</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>建设管理</t>
-        </is>
-      </c>
       <c r="J33" t="inlineStr">
         <is>
           <t>环境质量公报</t>
@@ -1311,21 +1030,6 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>平昌县应急管理局</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>安全生产</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>行政强制</t>
-        </is>
-      </c>
       <c r="J34" t="inlineStr">
         <is>
           <t>执法检查</t>
@@ -1336,21 +1040,6 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>平昌县应急管理局</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>救灾领域</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>备灾管理</t>
-        </is>
-      </c>
       <c r="J35" t="inlineStr">
         <is>
           <t>乡村振兴</t>
@@ -1361,21 +1050,6 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>平昌县应急管理局</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>救灾领域</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>灾后救助</t>
-        </is>
-      </c>
       <c r="J36" t="inlineStr">
         <is>
           <t>行政许可/处罚</t>
@@ -1386,21 +1060,6 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>平昌县应急管理局</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>救灾领域</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>灾害救助</t>
-        </is>
-      </c>
       <c r="J37" t="inlineStr">
         <is>
           <t>医疗保障</t>
@@ -1421,15 +1080,6 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="2" t="inlineStr">
-        <is>
-          <t>3.以下位置相邻文章发布时间间隔大于90天</t>
-        </is>
-      </c>
-      <c r="B39" s="2" t="n"/>
-      <c r="C39" s="2" t="n"/>
-      <c r="D39" s="2" t="n"/>
-      <c r="E39" s="2" t="n"/>
       <c r="J39" t="inlineStr">
         <is>
           <t>卫生健康</t>
@@ -1440,21 +1090,6 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>单位名称</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>领域</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>一级事项</t>
-        </is>
-      </c>
       <c r="J40" t="inlineStr">
         <is>
           <t>价格监测</t>

--- a/pcxzf/pcxzf/jiancefawenjian/网站监测反馈v3.0.xlsx
+++ b/pcxzf/pcxzf/jiancefawenjian/网站监测反馈v3.0.xlsx
@@ -447,7 +447,7 @@
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>检测时间：2025-02-26 09:58:43</t>
+          <t>检测时间：2025-03-04 15:55:41</t>
         </is>
       </c>
     </row>
@@ -563,12 +563,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>行政许可</t>
+          <t>行政检查</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>劳务派遣经营许可（权限内）</t>
+          <t>劳动保障监督检查</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -593,12 +593,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>行政许可</t>
+          <t>职业介绍、职业指导和创业开业指导</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>经营性人力资源服务机构从事职业中介活动许可（权限内）</t>
+          <t>职业介绍</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -623,12 +623,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>行政许可</t>
+          <t>公共就业服务专项活动</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve">民办职业培训学校设立审批(县级) </t>
+          <t>高校毕业生就业服务一件事</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -653,12 +653,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>行政处罚</t>
+          <t>就业失业登记</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>对人力资源服务机构违法行为的处罚</t>
+          <t>失业登记</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -683,12 +683,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>行政处罚</t>
+          <t>创业服务</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>其他行政处罚</t>
+          <t>创业补贴申请</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -703,22 +703,22 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>平昌县市场监督管理局</t>
+          <t>平昌县人力资源和社会保障局</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>食品药品</t>
+          <t>就业领域</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>监督检查</t>
+          <t>高校毕业生就业服务</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>由县级组织的医疗器械抽检</t>
+          <t xml:space="preserve">就业见习补贴申领   </t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -743,12 +743,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>公共服务</t>
+          <t>监督检查</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>食品用药安全宣传和消费提示警示</t>
+          <t>由县级组织的医疗器械抽检</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -763,17 +763,22 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>平昌县自然资源和规划局</t>
+          <t>平昌县市场监督管理局</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>自然资源</t>
+          <t>食品药品</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>耕地保护</t>
+          <t>公共服务</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>食品用药安全宣传和消费提示警示</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -788,17 +793,17 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>平昌县财政局</t>
+          <t>平昌县自然资源和规划局</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>财政预决算</t>
+          <t>自然资源</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>财政预算</t>
+          <t>耕地保护</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -813,17 +818,17 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>县公共资源交易服务中心</t>
+          <t>平昌县财政局</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>公共资源交易</t>
+          <t>财政预决算</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>国有土地使用权出让信息</t>
+          <t>财政预算</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">

--- a/pcxzf/pcxzf/jiancefawenjian/网站监测反馈v3.0.xlsx
+++ b/pcxzf/pcxzf/jiancefawenjian/网站监测反馈v3.0.xlsx
@@ -423,7 +423,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K53"/>
+  <dimension ref="A1:K72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,19 +442,19 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>五、基层政务公开专栏监测</t>
+          <t>一、法定主动公开内容栏目监测</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>检测时间：2025-03-04 15:55:41</t>
+          <t>检测时间：2025-05-21 08:46:58</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>1.以下位置内容条数少于4条</t>
+          <t>1.栏目超期情况监测:以下位置栏目已超期，请责任部门更新</t>
         </is>
       </c>
       <c r="B2" s="2" t="n"/>
@@ -463,24 +463,29 @@
       <c r="E2" s="2" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="2" t="inlineStr">
         <is>
           <t>单位名称</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>领域</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>一级事项</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>二级事项</t>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>栏目名称</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>更新标题</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t>最后更新时间</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="inlineStr">
+        <is>
+          <t>超期天数</t>
         </is>
       </c>
       <c r="J3" s="2" t="inlineStr">
@@ -490,6 +495,29 @@
       </c>
     </row>
     <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>平昌县经济和信息化局</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>统计信息</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1-9月平昌县规上工业企业实现总产值30.78亿元                                            </t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2024-11-15</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>187</v>
+      </c>
       <c r="J4" t="inlineStr">
         <is>
           <t>栏目名称</t>
@@ -502,15 +530,29 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>2.以下位置最近更新时间大于330天</t>
-        </is>
-      </c>
-      <c r="B5" s="2" t="n"/>
-      <c r="C5" s="2" t="n"/>
-      <c r="D5" s="2" t="n"/>
-      <c r="E5" s="2" t="n"/>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>平昌县经济和信息化局</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>收费项目</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">无线电台（站）频率占用费年度收费标准表                                            </t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2024-05-17</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>369</v>
+      </c>
       <c r="J5" t="inlineStr">
         <is>
           <t>机关简介</t>
@@ -523,23 +565,26 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>单位名称</t>
+          <t>平昌县财政局</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>领域</t>
+          <t>统计信息</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>一级事项</t>
+          <t xml:space="preserve">平昌县2025年1月预算收支情况                                            </t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>二级事项</t>
-        </is>
+          <t>2025-02-25</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>85</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -553,23 +598,26 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>平昌县人力资源和社会保障局</t>
+          <t>平昌县信访局</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>就业领域</t>
+          <t>规划计划</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>行政检查</t>
+          <t xml:space="preserve">2024年信访工作计划                                            </t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>劳动保障监督检查</t>
-        </is>
+          <t>2024-05-30</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>356</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -583,23 +631,26 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>平昌县人力资源和社会保障局</t>
+          <t>平昌县医疗保障局</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>就业领域</t>
+          <t>规划计划</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>职业介绍、职业指导和创业开业指导</t>
+          <t xml:space="preserve">2024年平昌县医疗保障工作要点                                            </t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>职业介绍</t>
-        </is>
+          <t>2024-05-27</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>359</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -613,23 +664,26 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>平昌县人力资源和社会保障局</t>
+          <t>平昌县医疗保障局</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>就业领域</t>
+          <t>统计信息</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>公共就业服务专项活动</t>
+          <t xml:space="preserve">平昌县2024年度按政策生育二孩、三孩一次性分娩补助及城乡居民基本医疗保险费代缴花名册（第八批次）                                            </t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>高校毕业生就业服务一件事</t>
-        </is>
+          <t>2024-10-28</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>205</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -643,23 +697,26 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>平昌县人力资源和社会保障局</t>
+          <t>平昌县医疗保障局</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>就业领域</t>
+          <t>预算/决算</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>就业失业登记</t>
+          <t xml:space="preserve">平昌县医疗保障局2024年部门预算公开                                            </t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>失业登记</t>
-        </is>
+          <t>2024-03-18</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>429</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -673,23 +730,26 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>平昌县人力资源和社会保障局</t>
+          <t>平昌县医疗保障局</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>就业领域</t>
+          <t>行政许可/处罚</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>创业服务</t>
+          <t xml:space="preserve">2024年度行政执法和行政执法监督工作统计表                                            </t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>创业补贴申请</t>
-        </is>
+          <t>2025-01-02</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>139</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -703,23 +763,26 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>平昌县人力资源和社会保障局</t>
+          <t>平昌县综合行政执法局</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>就业领域</t>
+          <t>其他法定信息</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>高校毕业生就业服务</t>
+          <t xml:space="preserve">平昌县综合行政执法局：平昌县县城环卫清扫保洁项目遴选代理机构结果公告                                            </t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t xml:space="preserve">就业见习补贴申领   </t>
-        </is>
+          <t>2025-02-27</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>83</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -733,23 +796,26 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>平昌县市场监督管理局</t>
+          <t>四川平昌经济开发区管理委员会</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>食品药品</t>
+          <t>统计信息</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>监督检查</t>
+          <t xml:space="preserve">平昌经开区复工复产安全大走访                                            </t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>由县级组织的医疗器械抽检</t>
-        </is>
+          <t>2025-02-27</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>83</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -763,23 +829,26 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>平昌县市场监督管理局</t>
+          <t>四川平昌经济开发区管理委员会</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>食品药品</t>
+          <t>重大项目</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>公共服务</t>
+          <t xml:space="preserve">平昌经开区2025年食品产业园进度                                            </t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>食品用药安全宣传和消费提示警示</t>
-        </is>
+          <t>2025-02-27</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>83</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -793,18 +862,26 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>平昌县自然资源和规划局</t>
+          <t>平昌县岳家镇人民政府</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>自然资源</t>
+          <t>其他法定信息</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>耕地保护</t>
-        </is>
+          <t xml:space="preserve">岳家镇长江流域“十年禁渔”工作实施方案                                            </t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2025-02-27</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>83</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -818,18 +895,26 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>平昌县财政局</t>
+          <t>平昌县驷马镇人民政府</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>财政预决算</t>
+          <t>规划计划</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>财政预算</t>
-        </is>
+          <t xml:space="preserve">驷马镇2024年汛期防汛应急预案                                            </t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2024-05-31</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>355</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -841,6 +926,29 @@
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>平昌县灵山镇人民政府</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>统计信息</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">灵山镇2025年园地优化改造计划任务统计明细表                                            </t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2025-02-27</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>83</v>
+      </c>
       <c r="J17" t="inlineStr">
         <is>
           <t>教育科技</t>
@@ -851,15 +959,29 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="inlineStr">
-        <is>
-          <t>3.以下位置相邻文章发布时间间隔大于90天</t>
-        </is>
-      </c>
-      <c r="B18" s="2" t="n"/>
-      <c r="C18" s="2" t="n"/>
-      <c r="D18" s="2" t="n"/>
-      <c r="E18" s="2" t="n"/>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>平昌县土兴镇人民政府</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>民生保障</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">土兴镇2025年1月高龄补贴发放情况                                            </t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2025-02-25</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>85</v>
+      </c>
       <c r="J18" t="inlineStr">
         <is>
           <t>养老服务</t>
@@ -872,18 +994,26 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>单位名称</t>
+          <t>平昌县泥龙镇人民政府</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>领域</t>
+          <t>统计信息</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>一级事项</t>
-        </is>
+          <t xml:space="preserve">泥龙镇2025年第一季度动物防疫工作情况统计                                            </t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2025-02-28</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>82</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -905,6 +1035,15 @@
       </c>
     </row>
     <row r="21">
+      <c r="A21" s="2" t="inlineStr">
+        <is>
+          <t>2.死链监测：以下单位对应栏目无内容，请上传内容或审核发布</t>
+        </is>
+      </c>
+      <c r="B21" s="2" t="n"/>
+      <c r="C21" s="2" t="n"/>
+      <c r="D21" s="2" t="n"/>
+      <c r="E21" s="2" t="n"/>
       <c r="J21" t="inlineStr">
         <is>
           <t>社会保障</t>
@@ -915,6 +1054,19 @@
       </c>
     </row>
     <row r="22">
+      <c r="A22" s="2" t="inlineStr">
+        <is>
+          <t>单位名称</t>
+        </is>
+      </c>
+      <c r="B22" s="2" t="inlineStr">
+        <is>
+          <t>栏目名称</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="n"/>
+      <c r="D22" s="2" t="n"/>
+      <c r="E22" s="2" t="n"/>
       <c r="J22" t="inlineStr">
         <is>
           <t>招考录用</t>
@@ -935,6 +1087,15 @@
       </c>
     </row>
     <row r="24">
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>3.统计信息缺失年份：以下单位缺失对应年份统计信息，请补充</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="n"/>
+      <c r="C24" s="2" t="n"/>
+      <c r="D24" s="2" t="n"/>
+      <c r="E24" s="2" t="n"/>
       <c r="J24" t="inlineStr">
         <is>
           <t>价格信息</t>
@@ -945,6 +1106,19 @@
       </c>
     </row>
     <row r="25">
+      <c r="A25" s="2" t="inlineStr">
+        <is>
+          <t>单位名称</t>
+        </is>
+      </c>
+      <c r="B25" s="2" t="inlineStr">
+        <is>
+          <t>缺失年份</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="n"/>
+      <c r="D25" s="2" t="n"/>
+      <c r="E25" s="2" t="n"/>
       <c r="J25" t="inlineStr">
         <is>
           <t>住房保障</t>
@@ -955,6 +1129,16 @@
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>平昌县经济和信息化局</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
       <c r="J26" t="inlineStr">
         <is>
           <t>涉农补贴</t>
@@ -975,6 +1159,11 @@
       </c>
     </row>
     <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>二、政府信息公开年报栏目缺失情况监测</t>
+        </is>
+      </c>
       <c r="J28" t="inlineStr">
         <is>
           <t>应急管理</t>
@@ -985,6 +1174,19 @@
       </c>
     </row>
     <row r="29">
+      <c r="A29" s="2" t="inlineStr">
+        <is>
+          <t>单位名称</t>
+        </is>
+      </c>
+      <c r="B29" s="2" t="inlineStr">
+        <is>
+          <t>缺失年份</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="n"/>
+      <c r="D29" s="2" t="n"/>
+      <c r="E29" s="2" t="n"/>
       <c r="J29" t="inlineStr">
         <is>
           <t>监测预警</t>
@@ -1005,6 +1207,11 @@
       </c>
     </row>
     <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>三、机构职能页监测</t>
+        </is>
+      </c>
       <c r="J31" t="inlineStr">
         <is>
           <t>环评公示</t>
@@ -1015,6 +1222,11 @@
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>1.以下位置未发布，请管理员处理</t>
+        </is>
+      </c>
       <c r="J32" t="inlineStr">
         <is>
           <t>环保督察</t>
@@ -1035,6 +1247,11 @@
       </c>
     </row>
     <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2.以下位置链接状态错误，请管理员检查</t>
+        </is>
+      </c>
       <c r="J34" t="inlineStr">
         <is>
           <t>执法检查</t>
@@ -1055,6 +1272,11 @@
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>3.以下单位机关简介中无领导分管政务公开，请对应部门修改</t>
+        </is>
+      </c>
       <c r="J36" t="inlineStr">
         <is>
           <t>行政许可/处罚</t>
@@ -1075,6 +1297,11 @@
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>4.以下单位机关简介中时间表述错误，请对应部门修改</t>
+        </is>
+      </c>
       <c r="J38" t="inlineStr">
         <is>
           <t>公共文化服务</t>
@@ -1095,6 +1322,11 @@
       </c>
     </row>
     <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>四、政府信息政策栏超期情况</t>
+        </is>
+      </c>
       <c r="J40" t="inlineStr">
         <is>
           <t>价格监测</t>
@@ -1105,6 +1337,27 @@
       </c>
     </row>
     <row r="41">
+      <c r="A41" s="2" t="inlineStr">
+        <is>
+          <t>单位名称</t>
+        </is>
+      </c>
+      <c r="B41" s="2" t="inlineStr">
+        <is>
+          <t>更新标题</t>
+        </is>
+      </c>
+      <c r="C41" s="2" t="inlineStr">
+        <is>
+          <t>最后更新时间</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="inlineStr">
+        <is>
+          <t>超期天数</t>
+        </is>
+      </c>
+      <c r="E41" s="2" t="n"/>
       <c r="J41" t="inlineStr">
         <is>
           <t>民生保障</t>
@@ -1114,7 +1367,165 @@
         <v>80</v>
       </c>
     </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>平昌县住房和城乡建设局</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">关于开展2024年度建设工程中、初级职称任职资格评审工作的通知                                            </t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>2024-05-27</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>平昌县商务局</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">平昌县商务局关于印发《平昌县商务领域安全生产治本攻坚三年行动方案（2024—2026年）》的通知                                            </t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>2024-04-10</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>平昌县应急管理局</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">平昌县应急管理专家管理办法                                            </t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>2024-05-17</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>平昌县信访局</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">国家信访局信访事项简易办理办法                                            </t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>2024-05-31</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>平昌县江口街道办事处</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">关于印发2024年防溺水工作实施方案的通知                                            </t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>2024-05-24</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>平昌县岳家镇人民政府</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">岳家镇人民政府关于印发《2024年城乡居民社会养老保险工作要点》的通知                                            </t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>2024-05-29</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>平昌县土垭镇人民政府</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">土垭镇农机安全事故应急预案                                            </t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>2024-05-17</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>369</v>
+      </c>
+    </row>
     <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>平昌县响滩镇人民政府</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">响滩镇2024年度关心下一代工作要点                                            </t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>2024-05-30</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>356</v>
+      </c>
       <c r="J49" s="2" t="inlineStr">
         <is>
           <t>基层政务公开栏目检测标准:</t>
@@ -1122,6 +1533,24 @@
       </c>
     </row>
     <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>平昌县驷马镇人民政府</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">驷马镇电力安全隐患排查整治“五大行动”工作方案                                            </t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>2024-05-31</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>355</v>
+      </c>
       <c r="J50" t="inlineStr">
         <is>
           <t>1.每个事项的总内容不少于4条</t>
@@ -1129,6 +1558,24 @@
       </c>
     </row>
     <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>平昌县灵山镇人民政府</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">灵山镇农村自办群体性宴席管理实施方案                                            </t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>2024-05-06</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>380</v>
+      </c>
       <c r="J51" t="inlineStr">
         <is>
           <t>2.最新更新时间不大于90天</t>
@@ -1143,15 +1590,330 @@
       </c>
     </row>
     <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>五、基层政务公开专栏监测</t>
+        </is>
+      </c>
       <c r="J53" t="inlineStr">
         <is>
           <t>注意：除办事服务等不易发布的内容外，其余链接形式的内容应尽量粘贴复制而不是直接跳转，否则机器人无法监测</t>
         </is>
       </c>
     </row>
+    <row r="54">
+      <c r="A54" s="2" t="inlineStr">
+        <is>
+          <t>1.以下位置内容条数少于4条</t>
+        </is>
+      </c>
+      <c r="B54" s="2" t="n"/>
+      <c r="C54" s="2" t="n"/>
+      <c r="D54" s="2" t="n"/>
+      <c r="E54" s="2" t="n"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>单位名称</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>领域</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>一级事项</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>二级事项</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="inlineStr">
+        <is>
+          <t>2.以下位置最近更新时间大于330天</t>
+        </is>
+      </c>
+      <c r="B57" s="2" t="n"/>
+      <c r="C57" s="2" t="n"/>
+      <c r="D57" s="2" t="n"/>
+      <c r="E57" s="2" t="n"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>单位名称</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>领域</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>一级事项</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>二级事项</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>平昌县人力资源和社会保障局</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>就业领域</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>就业信息</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>就业政策法规咨询</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>平昌县人力资源和社会保障局</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>就业领域</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>行政处罚</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>对用人单位违法行为的处罚</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>平昌县人力资源和社会保障局</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>就业领域</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>职业介绍、职业指导和创业开业指导</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>职业指导</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>平昌县人力资源和社会保障局</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>就业领域</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>职业介绍、职业指导和创业开业指导</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>创业开业指导</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>平昌县人力资源和社会保障局</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>就业领域</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>公共就业服务专项活动</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>就业见习补贴申领</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>平昌县公安局</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>户籍管理</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>出生登记</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>平昌县公安局</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>户籍管理</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>收养、入籍等登记</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>平昌县公安局</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>户籍管理</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>注销登记</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>平昌县公安局</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>户籍管理</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>迁移登记</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>平昌县公安局</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>户籍管理</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>居民身份证管理</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>平昌县财政局</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>财政预决算</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>财政预算</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="inlineStr">
+        <is>
+          <t>3.以下位置相邻文章发布时间间隔大于90天</t>
+        </is>
+      </c>
+      <c r="B71" s="2" t="n"/>
+      <c r="C71" s="2" t="n"/>
+      <c r="D71" s="2" t="n"/>
+      <c r="E71" s="2" t="n"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>单位名称</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>领域</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>一级事项</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
+  <mergeCells count="5">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A53:E53"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A28:D28"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
